--- a/Wheat/RawDatafiles/Canopy.xlsx
+++ b/Wheat/RawDatafiles/Canopy.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="19464" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="19464" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PlotNDVI" sheetId="1" r:id="rId1"/>
     <sheet name="SunScanCover" sheetId="2" r:id="rId2"/>
+    <sheet name="SunScanLAI" sheetId="3" r:id="rId3"/>
+    <sheet name="DestructiveLAI" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="13">
   <si>
     <t>Dryland</t>
   </si>
@@ -386,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +553,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -2950,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4993,4 +4995,2692 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.22113744056196674</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.23662383106087267</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.31085533913849878</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.36727748842613372</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.17686763499337835</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.24400392404118273</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.17326710045086186</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.17566952807935729</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.18412142898921086</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.24983837983516272</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.20991946471408571</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.1464835828476411</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.22715035694857363</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.21571260314128074</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.27337278540451199</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.299662110330285</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.24829981382451169</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.22552623389018089</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.26893613419986612</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.12741471295695866</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.20117971229282544</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.2812686669284884</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.2349546612522368</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.13999615653977532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.34494519930621348</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2794493016918756</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.47902669622757754</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.4963218207111314</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.2076216682257665</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.22776184044785727</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.20596807603620965</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.28051737225500584</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.23849629709689119</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.36056971787467185</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.22181939807089521</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.22847409682740999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.32724445837033656</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.27970946357785786</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.38745303989061142</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.4316357998780963</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.33276329788219322</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.17105066956373655</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.32780899947731601</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.15616713534959528</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.33721244139396533</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.3849863117133413</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.37628058075354459</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.22051960842324356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>42307</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.43295594357802819</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.33334694436969325</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.53814876676879064</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.54381837980967895</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.30294426567303678</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.39175013697754979</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.33721347913124006</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.28914206846313467</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.85612947526447125</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.53419669960300875</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.53456966295419306</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.39706296171715449</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.44380918311231826</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.41632923589381188</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.61718034072209882</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.52180613338209814</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.46552360260609527</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.46220122248237622</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.39662528124565732</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.33679635215761394</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.66239118674967712</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.67551236795019987</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.6212579712340347</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.4357743895676448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.42801550912802189</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.42221083627983419</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.74545347503391157</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.62162287816669204</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.45036399726133663</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.41383830323068949</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.40255299732666555</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.44035539695403714</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0990696561221978</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.73719471680990789</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.86242136550579462</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.49848037471353146</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.83352510722042739</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.49636669333513772</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.80653105673588854</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.74379116481383722</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.65341304520615306</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.58073108712116683</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.55336674344052894</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.37482777579407622</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1.0295044529399919</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1.0911089154242133</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.86864803138644908</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.68488460265090478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>42318</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.61892310348600366</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.54923884900255437</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0240185141237332</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.85503140654101917</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.64591509274299186</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.65107762513093681</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61369263205168567</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.58659515765155035</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.6944089490066276</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.2669499674812279</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.3410442807898069</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1.1825887608585</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.85575219895293253</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.61396010676584201</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1.1365363512196485</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.82108964978460963</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.85052900182022539</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.83816518111151805</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.83604797436438916</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.81307658772720726</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1.848806340202372</v>
+      </c>
+      <c r="W9" s="2">
+        <v>2.2360220450793191</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1.5073190148798883</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1.2316939313809168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.48901493805086577</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.38746850674030875</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.94324314278435484</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.80356370067680383</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.54156790571062241</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.71465181804680411</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.6790356080216956</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.53629876322725334</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.9106137067377496</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.3358656081804323</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.4164795229962139</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.0841074008026161</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.78370099560942907</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.51328019670854164</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.1207581120705259</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.89258518222494421</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.83361162584847182</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.55382699997791685</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.82810668735934312</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.78744422457828434</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1.6383433657116437</v>
+      </c>
+      <c r="W10" s="2">
+        <v>2.1286201267928027</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1.4018610689831474</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1.239481679208805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>42325</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.75596668898899078</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.58813545368051545</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.3445055125785088</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.95240994485428843</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.83070104399027134</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.85281262035439609</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.71675175614449216</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.7627619060033497</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.0853915795606275</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.8694989885771278</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.6667856709752726</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.3853212728377235</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.4222814648524784</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.74636883337616633</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.442871104420542</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1.1403057417761748</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1.3863749044082632</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1.1198773031954441</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1.1065604326398526</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.81435750596221512</v>
+      </c>
+      <c r="V11" s="2">
+        <v>2.6080681741191931</v>
+      </c>
+      <c r="W11" s="2">
+        <v>2.8468695667849055</v>
+      </c>
+      <c r="X11" s="2">
+        <v>2.0223407083671137</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1.7436498867137451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>42331</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.57453987147658325</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.51807270553265239</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.2202315765486886</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8534130527997611</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.78663053907901603</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.85977698168388239</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.74826815285173465</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.82782178379049998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.3580961852523958</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.8102034427320866</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.90855596540885</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.7711981221808653</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.2279082169609055</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.6875574155374542</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1.2952965101861751</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.2941182769130184</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1.4136870042957561</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1.081767686393436</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1.1798501932444869</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1.1251005472180773</v>
+      </c>
+      <c r="V12" s="2">
+        <v>2.6302168615299193</v>
+      </c>
+      <c r="W12" s="2">
+        <v>3.2081038286619146</v>
+      </c>
+      <c r="X12" s="2">
+        <v>2.2449355725211406</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>2.3442434142854447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.61154086299613541</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.54726714200907833</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1087219145935183</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.60061893022499691</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.0356284188271925</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.85260751370507926</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.94605997772366135</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.75676954786630968</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.6126978406626451</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.7064628660595003</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2.2254763626849341</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.9643167710628195</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.1170376564928239</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.6521543544046573</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.269431340361439</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.1303336398103536</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1.5670814546632295</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1.4326231099211468</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1.3624785282276339</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1.429750629940796</v>
+      </c>
+      <c r="V13" s="2">
+        <v>2.9570156660268894</v>
+      </c>
+      <c r="W13" s="2">
+        <v>3.3945976278071326</v>
+      </c>
+      <c r="X13" s="2">
+        <v>3.3746763743185597</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>2.7787333963026408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>42342</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.74184894903377285</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.62185901647579289</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.0737576801034057</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.1298532676353377</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.0659348725735494</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.1532889462736802</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.3876672151704579</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.1062086655459971</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.885026139688966</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.7962173924250249</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.1854975495432933</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.3598981360535967</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.214214439655674</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.87157690918646968</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.3675468750901976</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.2466753198129061</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1.5906582013077284</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1.7283838139684611</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1.7262820769300711</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1.7308872407780931</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3.4837116925041789</v>
+      </c>
+      <c r="W14" s="2">
+        <v>3.5156710424643256</v>
+      </c>
+      <c r="X14" s="2">
+        <v>3.4737492521199131</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>3.1841153772184194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>42345</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.52884195103316833</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.46957147515175085</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.81946532188385102</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.72721847021203445</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.99215879511646032</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.84824552663345254</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.94048777852240273</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.6644774111833105</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.5111224767963862</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.4280845862784852</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.7672046289012731</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.8440583043476224</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.1577824069976437</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.64468043912821082</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.95924334648601861</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.0092712856217947</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1.2506408315193362</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1.3953968864779331</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1.3739525569663478</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1.602199844404528</v>
+      </c>
+      <c r="V15" s="2">
+        <v>3.2996420880302546</v>
+      </c>
+      <c r="W15" s="2">
+        <v>2.9153502152789912</v>
+      </c>
+      <c r="X15" s="2">
+        <v>2.8848951057511583</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>2.7603256398474558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>42349</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.80835855597888473</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.74025368997286656</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.4276392708198096</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.0994683744268408</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.3241772625151271</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.1873249128162953</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.0703487480023921</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.1676039515987422</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3.4630573832259737</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.3751232306458188</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2.747321346202753</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2.7718144654193893</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.6418658105512367</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.0904649500484944</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.585958555953638</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.6508402485952516</v>
+      </c>
+      <c r="R16" s="2">
+        <v>2.0299682024001759</v>
+      </c>
+      <c r="S16" s="2">
+        <v>2.140576006614173</v>
+      </c>
+      <c r="T16" s="2">
+        <v>2.3232342548280305</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1.9175497285292167</v>
+      </c>
+      <c r="V16" s="2">
+        <v>4.9451006091459488</v>
+      </c>
+      <c r="W16" s="2">
+        <v>4.9411872352635822</v>
+      </c>
+      <c r="X16" s="2">
+        <v>5.1554809261853478</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>4.4149686606188485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>42352</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.57442847453109824</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.5389973731074702</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.91468862500246451</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.82052260697107593</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.81576011382118074</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.76396223062540636</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.82060358424344138</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.74377740356872091</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.2987194272408962</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.5048488206014194</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.7798928682845818</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.7240656056704391</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.0041977970081672</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.67624159810620799</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.2555659264535759</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1.0163029907827144</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1.6056941351181808</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1.3989715851474176</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1.5248373228592667</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1.2896714553850028</v>
+      </c>
+      <c r="V17" s="2">
+        <v>3.4056650742861101</v>
+      </c>
+      <c r="W17" s="2">
+        <v>3.346937348519615</v>
+      </c>
+      <c r="X17" s="2">
+        <v>3.0454964257455757</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>3.0837371721447719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>42359</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.48747490250463688</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.4364604711799136</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.87246948006494396</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.69450572472376548</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.79173817798922086</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.88199497456180254</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.81650436202944499</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.60251935462812101</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.0344344368644265</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.2621110110900871</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.7517524190692544</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.5379913573622954</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.98777322274026536</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.60597056917255809</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.0426249875115965</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.9063044858774818</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1.4417925022740097</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1.2216591004531649</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1.377307765498597</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1.4850879617935402</v>
+      </c>
+      <c r="V18" s="2">
+        <v>3.1045543596798795</v>
+      </c>
+      <c r="W18" s="2">
+        <v>3.3574906282209751</v>
+      </c>
+      <c r="X18" s="2">
+        <v>3.103726474016566</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>3.0018671264907049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>42368</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.48268984391385483</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.46825408649459854</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.87860556640841225</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.69445412839854304</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.88675201450685626</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.87151985656225539</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.71272086529581558</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.64546644597257541</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.1415085096101878</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.4051970056166647</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.6958919556902914</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.7593544006341681</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1.0419400903322631</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.76304063687284729</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.1759095063226743</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1.1119320160331072</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1.6009822774875428</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1.4267657582626772</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1.654597622788478</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1.4504847761718931</v>
+      </c>
+      <c r="V19" s="2">
+        <v>3.4111270245062455</v>
+      </c>
+      <c r="W19" s="2">
+        <v>4.0313269502403468</v>
+      </c>
+      <c r="X19" s="2">
+        <v>4.0496820853660447</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>4.0336791234035863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>42375</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.60099776797263793</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.48412800543957868</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.9765139838466721</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.89313866226485816</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.88774720939494789</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.93363838160223112</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.0350183405848756</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.56889747058471252</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2.1893762313843279</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.2755114896650102</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.8384180704680251</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2.0615255327021265</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1.0224637673818839</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.93099194486375614</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1.2698705655670761</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1.1408382282851501</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1.4621176758447383</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1.5374952913338096</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1.723206254479446</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1.6662766112417191</v>
+      </c>
+      <c r="V20" s="2">
+        <v>2.7906761996915677</v>
+      </c>
+      <c r="W20" s="2">
+        <v>4.3567301850333795</v>
+      </c>
+      <c r="X20" s="2">
+        <v>4.1269398854650756</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>4.2516154732797684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>42380</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.50531574853166739</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.32625491339301937</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.69065804727396951</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.41279837549000487</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.80112790187843275</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.7330270627498463</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.78047802081794515</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.43768588334425751</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.9088896931393318</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.1261324272941589</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.3251319854554489</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1.6700552426902426</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.78480385210651149</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.58079355130448795</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.0932233995819243</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1.0649708941046792</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1.401095748237815</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1.4776220161875204</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1.4658978657207065</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1.4899703705739502</v>
+      </c>
+      <c r="V21" s="2">
+        <v>3.5803039777799723</v>
+      </c>
+      <c r="W21" s="2">
+        <v>3.9312197925278696</v>
+      </c>
+      <c r="X21" s="2">
+        <v>4.1213161072966313</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>4.3742357697129899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>42383</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.45656999500546191</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.33321904020906035</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.79068115136638206</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.63259259356671271</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.61088826773256411</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.66116287208938951</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.66297226244602236</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.59638241174883344</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.8883444214309371</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.2998111776535202</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.419349882750828</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.5970205731944473</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.9305888090041925</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.73932579805044418</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1.3154972127023934</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1.2149945467452841</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1.6425375485767471</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1.5165881933530927</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1.558373766481195</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1.5538364442555388</v>
+      </c>
+      <c r="V22" s="2">
+        <v>3.9819878613921347</v>
+      </c>
+      <c r="W22" s="2">
+        <v>4.5110685243051538</v>
+      </c>
+      <c r="X22" s="2">
+        <v>4.8548561820315763</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>4.9673446900478657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>42388</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.50362051472565506</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.48048639722584852</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.75953644915389162</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.59025178640690279</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.60794393417033288</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.63205253572181885</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.59327487583830896</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.70627694420972253</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.3960023860568742</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.0829746752757974</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.0565932780738869</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.3026211466751776</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.81335350616632918</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.77256170406928526</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1.0933446467207861</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1.0059327844400323</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1.4215826099209832</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1.3402173262366297</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1.3411518585440299</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1.2825596531362036</v>
+      </c>
+      <c r="V23" s="2">
+        <v>2.3691471466309215</v>
+      </c>
+      <c r="W23" s="2">
+        <v>3.2542247403516251</v>
+      </c>
+      <c r="X23" s="2">
+        <v>3.7876388601837681</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>3.7938164276318469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>42391</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.5385574192411553</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.45845114363585421</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.76612288845553056</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.70251198492445888</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.75453471145863871</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.68073874423776237</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.81932750328114157</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.66771782362661847</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.7349944186935335</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.2133432886154523</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.2458239065227801</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1.3545061848438404</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.77506724010691408</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.86311188122272253</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.99920671465421085</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.97708727057419653</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1.54393507379943</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1.2656942508764248</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1.3558992842774824</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1.4547976123188957</v>
+      </c>
+      <c r="V24" s="2">
+        <v>2.3735247798447356</v>
+      </c>
+      <c r="W24" s="2">
+        <v>3.0314388179568743</v>
+      </c>
+      <c r="X24" s="2">
+        <v>3.952928619134763</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>3.8518821287028033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>42394</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.46316223476719254</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.40086446049981894</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.77554182688840745</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.57939237606142358</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.64740996242754856</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.65596552590449098</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.61998337027851635</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.63721828928040336</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.5172969879435285</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.1038334688601368</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.1368410418387305</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.2321521660850585</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.77075375656996514</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.64429652507873281</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.98512128905466712</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.8447190551026541</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1.1559887755289127</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1.0652713901469149</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1.1255493686172149</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1.243282703117381</v>
+      </c>
+      <c r="V25" s="2">
+        <v>2.1148142809566197</v>
+      </c>
+      <c r="W25" s="2">
+        <v>2.8383303036629051</v>
+      </c>
+      <c r="X25" s="2">
+        <v>3.2250147500410238</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>3.43185222061742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.64867193011528745</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.62071282203817668</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.9855962618418973</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.77531202780838515</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.85751732056938335</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.8762831437269506</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.022036506881679</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.82953321051102158</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.9217566615582133</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.2316486064094154</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1.4998587079594503</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1.6096791418358478</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.78137597319704788</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.94450180411417561</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.0307824910369165</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.932849790073913</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.1946481022685569</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1.4053624270464873</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1.1785065738056013</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1.5183550349299071</v>
+      </c>
+      <c r="V26" s="2">
+        <v>2.2015768417449415</v>
+      </c>
+      <c r="W26" s="2">
+        <v>2.5733555289858301</v>
+      </c>
+      <c r="X26" s="2">
+        <v>2.855502276376876</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>2.9207938331442813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>42409</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.62980416345733969</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.65918048728479928</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.97644064227217131</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.77284411418404031</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1.0607031176246888</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1.0305239366996257</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1.0537541267478712</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0.92580912918036307</v>
+      </c>
+      <c r="V27" s="2">
+        <v>2.0837274132104682</v>
+      </c>
+      <c r="W27" s="2">
+        <v>2.2281688684724577</v>
+      </c>
+      <c r="X27" s="2">
+        <v>2.4361348677848462</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>2.1656497912835029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>42306</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.35265325992935637</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.40607653061224486</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.93178406361879418</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.95958525905025904</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.42540602159468438</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.58460215472027977</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.44671885853609994</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.52129699248120309</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.89682537319068567</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.93734634026927788</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.88709074100932173</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.50293743663414858</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.4544301928254675</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.48824684875183549</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1.1423103863324175</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.9472428615962083</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.87349800537206523</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.51506059674775717</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.4907588533834587</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.44589346938775504</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1.0687417658730156</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1.1415311588541668</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.61123119443710938</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.54862046968641121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.60643605272532952</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.593942953702292</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.6762574181635053</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.1971208025878652</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.9034919827051342</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.1491159123978656</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.90825846298915613</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.1100693154051597</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.109773865643175</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.5969697392871227</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.1330825272898144</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.556089180605547</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.8827542541758326</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.92444217469943624</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.0887186260236583</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.5317163882117124</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2.4144086250394201</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.4696789112554112</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.2415629905031322</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1.0257944983215217</v>
+      </c>
+      <c r="V6" s="2">
+        <v>3.3078241370987209</v>
+      </c>
+      <c r="W6" s="2">
+        <v>3.7951769388391461</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2.3898532567049813</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2.1185446843853817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>42341</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.42889479762220289</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.5377880234911766</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.2225332199414143</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.85810060150375955</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.88039790324303169</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.1109757731383276</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.875428041793057</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.68673207547169812</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.3544595982142857</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.5494314811338468</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.7738715984533453</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.4472820549377436</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.4377603607094418</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.6743081271712813</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.3065850651525543</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.3830532341458264</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2.2028259655514506</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1.7405208107805445</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.2043154671853615</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1.6185342330023984</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2.649739064611325</v>
+      </c>
+      <c r="W7" s="2">
+        <v>5.0333648252592642</v>
+      </c>
+      <c r="X7" s="2">
+        <v>2.5875754603371099</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2.822798281068525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.27048304618539176</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.27093677719008014</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.88835758978259649</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.61657998234452527</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.74464196785743453</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.72400628037511139</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.65718715437788011</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.5738274942711088</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.87742669845053622</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.8113838702033644</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.1434944470514621</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.3315846890817065</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.1315513374841462</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.60221628418736239</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.3899167568347399</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.4864525356075002</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2.695297385220492</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1.3391137982536767</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.1443585929377498</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1.2751215321324061</v>
+      </c>
+      <c r="V8" s="2">
+        <v>2.6024308139668269</v>
+      </c>
+      <c r="W8" s="2">
+        <v>4.567164444201552</v>
+      </c>
+      <c r="X8" s="2">
+        <v>3.0766429335370509</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>2.8010350814564804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>42375</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.11105957126148706</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.5696773161645626E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.14237607061409266</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.16492771627006</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.24574066839940034</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.21012161579765437</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.2312279699992924</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.11346968457447075</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.17001559273410743</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.10315562599323624</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.4414697765723391</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.5239875992063493</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.6094680434066343</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.34108017550685171</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.81162252875028484</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.69648529240237744</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.85153062296416937</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1.1470741996632787</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.63130900759716513</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1.150724739720788</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2.5959402229725423</v>
+      </c>
+      <c r="W9" s="2">
+        <v>2.7453624181933596</v>
+      </c>
+      <c r="X9" s="2">
+        <v>3.8304429106004796</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>2.4537910725065393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Wheat/RawDatafiles/Canopy.xlsx
+++ b/Wheat/RawDatafiles/Canopy.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="19464" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="19464" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PlotNDVI" sheetId="1" r:id="rId1"/>
-    <sheet name="SunScanCover" sheetId="2" r:id="rId2"/>
-    <sheet name="SunScanLAI" sheetId="3" r:id="rId3"/>
-    <sheet name="DestructiveLAI" sheetId="4" r:id="rId4"/>
+    <sheet name="NDVI_Raw" sheetId="5" r:id="rId2"/>
+    <sheet name="SunScanCover" sheetId="2" r:id="rId3"/>
+    <sheet name="SunScanLAI" sheetId="3" r:id="rId4"/>
+    <sheet name="DestructiveLAI" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="15">
   <si>
     <t>Dryland</t>
   </si>
@@ -67,12 +68,21 @@
   <si>
     <t>Block</t>
   </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Expt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +90,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,16 +120,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2950,6 +2981,2732 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>42286</v>
+      </c>
+      <c r="B5">
+        <v>0.1487336923812739</v>
+      </c>
+      <c r="C5">
+        <v>0.1561315622595629</v>
+      </c>
+      <c r="D5">
+        <v>0.17204447649085766</v>
+      </c>
+      <c r="E5">
+        <v>0.17504732916489221</v>
+      </c>
+      <c r="F5">
+        <v>0.15160862266428887</v>
+      </c>
+      <c r="G5">
+        <v>0.16090252465611476</v>
+      </c>
+      <c r="H5">
+        <v>0.16754306057294396</v>
+      </c>
+      <c r="I5">
+        <v>0.15629616211868602</v>
+      </c>
+      <c r="J5">
+        <v>0.15565201875847065</v>
+      </c>
+      <c r="K5">
+        <v>0.15465806598066933</v>
+      </c>
+      <c r="L5">
+        <v>0.16037630615944815</v>
+      </c>
+      <c r="M5">
+        <v>0.15946422430210982</v>
+      </c>
+      <c r="N5">
+        <v>0.15765896533223084</v>
+      </c>
+      <c r="O5">
+        <v>0.15780396767794819</v>
+      </c>
+      <c r="P5">
+        <v>0.16695612152958531</v>
+      </c>
+      <c r="Q5">
+        <v>0.17214842178375464</v>
+      </c>
+      <c r="R5">
+        <v>0.16477148762973726</v>
+      </c>
+      <c r="S5">
+        <v>0.16325531486160058</v>
+      </c>
+      <c r="T5">
+        <v>0.1669114403142794</v>
+      </c>
+      <c r="U5">
+        <v>0.16287622283446046</v>
+      </c>
+      <c r="V5">
+        <v>0.14664189303777458</v>
+      </c>
+      <c r="W5">
+        <v>0.16263665698286997</v>
+      </c>
+      <c r="X5">
+        <v>0.15890065758951685</v>
+      </c>
+      <c r="Y5">
+        <v>0.15006355894205911</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.17705328699145725</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0.1969015205262068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>42289</v>
+      </c>
+      <c r="B6">
+        <v>0.16219001143836431</v>
+      </c>
+      <c r="C6">
+        <v>0.16398872009325904</v>
+      </c>
+      <c r="D6">
+        <v>0.18420691404466949</v>
+      </c>
+      <c r="E6">
+        <v>0.17921658009053368</v>
+      </c>
+      <c r="F6">
+        <v>0.15780075264828111</v>
+      </c>
+      <c r="G6">
+        <v>0.16017259652542504</v>
+      </c>
+      <c r="H6">
+        <v>0.1663136891747411</v>
+      </c>
+      <c r="I6">
+        <v>0.16284330916435219</v>
+      </c>
+      <c r="J6">
+        <v>0.16643178091360605</v>
+      </c>
+      <c r="K6">
+        <v>0.15463750949971219</v>
+      </c>
+      <c r="L6">
+        <v>0.1656193209670429</v>
+      </c>
+      <c r="M6">
+        <v>0.1799085690978883</v>
+      </c>
+      <c r="N6">
+        <v>0.14853177530485345</v>
+      </c>
+      <c r="O6">
+        <v>0.15859831342412006</v>
+      </c>
+      <c r="P6">
+        <v>0.20394530591599178</v>
+      </c>
+      <c r="Q6">
+        <v>0.17591066467178224</v>
+      </c>
+      <c r="R6">
+        <v>0.15853642596234332</v>
+      </c>
+      <c r="S6">
+        <v>0.17320231336336339</v>
+      </c>
+      <c r="T6">
+        <v>0.17541437676153956</v>
+      </c>
+      <c r="U6">
+        <v>0.1724346998780304</v>
+      </c>
+      <c r="V6">
+        <v>0.16137402482938309</v>
+      </c>
+      <c r="W6">
+        <v>0.16184878239534509</v>
+      </c>
+      <c r="X6">
+        <v>0.17794726251103338</v>
+      </c>
+      <c r="Y6">
+        <v>0.16672822793967823</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.1718274116803373</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>42292</v>
+      </c>
+      <c r="B7">
+        <v>0.1946354647483596</v>
+      </c>
+      <c r="C7">
+        <v>0.19095546118266576</v>
+      </c>
+      <c r="D7">
+        <v>0.22117984445395375</v>
+      </c>
+      <c r="E7">
+        <v>0.20139290828405618</v>
+      </c>
+      <c r="F7">
+        <v>0.18187586507132183</v>
+      </c>
+      <c r="G7">
+        <v>0.191121568244638</v>
+      </c>
+      <c r="H7">
+        <v>0.18763276058802275</v>
+      </c>
+      <c r="I7">
+        <v>0.1970862978002558</v>
+      </c>
+      <c r="J7">
+        <v>0.20495128761277223</v>
+      </c>
+      <c r="K7">
+        <v>0.19012777947327197</v>
+      </c>
+      <c r="L7">
+        <v>0.19604841991300506</v>
+      </c>
+      <c r="M7">
+        <v>0.18852497975939411</v>
+      </c>
+      <c r="N7">
+        <v>0.18120390577465628</v>
+      </c>
+      <c r="O7">
+        <v>0.1907773018601305</v>
+      </c>
+      <c r="P7">
+        <v>0.20979332788437938</v>
+      </c>
+      <c r="Q7">
+        <v>0.19942280280968508</v>
+      </c>
+      <c r="R7">
+        <v>0.19595482843293158</v>
+      </c>
+      <c r="S7">
+        <v>0.1936133499971622</v>
+      </c>
+      <c r="T7">
+        <v>0.19658847117036293</v>
+      </c>
+      <c r="U7">
+        <v>0.17934298688812314</v>
+      </c>
+      <c r="V7">
+        <v>0.19062251588304199</v>
+      </c>
+      <c r="W7">
+        <v>0.2080795030011314</v>
+      </c>
+      <c r="X7">
+        <v>0.19685026381782939</v>
+      </c>
+      <c r="Y7">
+        <v>0.18760331994604629</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.16733612666088787</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>0.1969015205262068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>42297</v>
+      </c>
+      <c r="B8">
+        <v>0.23007121580859702</v>
+      </c>
+      <c r="C8">
+        <v>0.21743583270319489</v>
+      </c>
+      <c r="D8">
+        <v>0.25516504108154869</v>
+      </c>
+      <c r="E8">
+        <v>0.23668565878278783</v>
+      </c>
+      <c r="F8">
+        <v>0.21064735222730055</v>
+      </c>
+      <c r="G8">
+        <v>0.22194986781607456</v>
+      </c>
+      <c r="H8">
+        <v>0.20918332320893335</v>
+      </c>
+      <c r="I8">
+        <v>0.21456539328579899</v>
+      </c>
+      <c r="J8">
+        <v>0.25438593358951411</v>
+      </c>
+      <c r="K8">
+        <v>0.2140333818943676</v>
+      </c>
+      <c r="L8">
+        <v>0.23241725873088057</v>
+      </c>
+      <c r="M8">
+        <v>0.2389313281508238</v>
+      </c>
+      <c r="N8">
+        <v>0.19214384847263735</v>
+      </c>
+      <c r="O8">
+        <v>0.22303996667855908</v>
+      </c>
+      <c r="P8">
+        <v>0.24925651715905942</v>
+      </c>
+      <c r="Q8">
+        <v>0.23548135536887729</v>
+      </c>
+      <c r="R8">
+        <v>0.21731929413883999</v>
+      </c>
+      <c r="S8">
+        <v>0.22309230819291087</v>
+      </c>
+      <c r="T8">
+        <v>0.23190359235076621</v>
+      </c>
+      <c r="U8">
+        <v>0.2181642748191546</v>
+      </c>
+      <c r="V8">
+        <v>0.23453236158160815</v>
+      </c>
+      <c r="W8">
+        <v>0.2312664604529481</v>
+      </c>
+      <c r="X8">
+        <v>0.24429411366244272</v>
+      </c>
+      <c r="Y8">
+        <v>0.22613519228739801</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0.1793321240339695</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>42299</v>
+      </c>
+      <c r="B9">
+        <v>0.25277387299881865</v>
+      </c>
+      <c r="C9">
+        <v>0.23244564338923038</v>
+      </c>
+      <c r="D9">
+        <v>0.30652724754137761</v>
+      </c>
+      <c r="E9">
+        <v>0.26417282247480234</v>
+      </c>
+      <c r="F9">
+        <v>0.27967424928383344</v>
+      </c>
+      <c r="G9">
+        <v>0.27845787122106641</v>
+      </c>
+      <c r="H9">
+        <v>0.2559862466251806</v>
+      </c>
+      <c r="I9">
+        <v>0.22828660043336307</v>
+      </c>
+      <c r="J9">
+        <v>0.34334791189278013</v>
+      </c>
+      <c r="K9">
+        <v>0.26808960435529028</v>
+      </c>
+      <c r="L9">
+        <v>0.301604531901013</v>
+      </c>
+      <c r="M9">
+        <v>0.30926699401919261</v>
+      </c>
+      <c r="N9">
+        <v>0.28007724558581637</v>
+      </c>
+      <c r="O9">
+        <v>0.34845659557733866</v>
+      </c>
+      <c r="P9">
+        <v>0.40988058513072984</v>
+      </c>
+      <c r="Q9">
+        <v>0.37144664629738283</v>
+      </c>
+      <c r="R9">
+        <v>0.34140571287683635</v>
+      </c>
+      <c r="S9">
+        <v>0.35792543607064436</v>
+      </c>
+      <c r="T9">
+        <v>0.34576404308172304</v>
+      </c>
+      <c r="U9">
+        <v>0.34369688189599201</v>
+      </c>
+      <c r="V9">
+        <v>0.37219216498731489</v>
+      </c>
+      <c r="W9">
+        <v>0.35045512400227896</v>
+      </c>
+      <c r="X9">
+        <v>0.38674858729670014</v>
+      </c>
+      <c r="Y9">
+        <v>0.36548071889847544</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0.1753170168991707</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0.1969015205262068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>42304</v>
+      </c>
+      <c r="B10">
+        <v>0.28753188990368722</v>
+      </c>
+      <c r="C10">
+        <v>0.24781664339402301</v>
+      </c>
+      <c r="D10">
+        <v>0.3439863256791118</v>
+      </c>
+      <c r="E10">
+        <v>0.29842600223560173</v>
+      </c>
+      <c r="F10">
+        <v>0.26419971574389339</v>
+      </c>
+      <c r="G10">
+        <v>0.28581426697183304</v>
+      </c>
+      <c r="H10">
+        <v>0.23916705894955856</v>
+      </c>
+      <c r="I10">
+        <v>0.28114876121994226</v>
+      </c>
+      <c r="J10">
+        <v>0.37539956385640871</v>
+      </c>
+      <c r="K10">
+        <v>0.32784340688070762</v>
+      </c>
+      <c r="L10">
+        <v>0.35981372994294908</v>
+      </c>
+      <c r="M10">
+        <v>0.31095911753907751</v>
+      </c>
+      <c r="N10">
+        <v>0.27652779158874624</v>
+      </c>
+      <c r="O10">
+        <v>0.27878238795650345</v>
+      </c>
+      <c r="P10">
+        <v>0.34886836245207214</v>
+      </c>
+      <c r="Q10">
+        <v>0.30644896413284378</v>
+      </c>
+      <c r="R10">
+        <v>0.28745094354572298</v>
+      </c>
+      <c r="S10">
+        <v>0.29193393898938375</v>
+      </c>
+      <c r="T10">
+        <v>0.28114271736260904</v>
+      </c>
+      <c r="U10">
+        <v>0.27817722695750802</v>
+      </c>
+      <c r="V10">
+        <v>0.36303014873336359</v>
+      </c>
+      <c r="W10">
+        <v>0.38462881044983699</v>
+      </c>
+      <c r="X10">
+        <v>0.35997533135817866</v>
+      </c>
+      <c r="Y10">
+        <v>0.32082021394971583</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0.16491317313420445</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>42307</v>
+      </c>
+      <c r="B11">
+        <v>0.29651041228218467</v>
+      </c>
+      <c r="C11">
+        <v>0.26837005088228266</v>
+      </c>
+      <c r="D11">
+        <v>0.36159419163912315</v>
+      </c>
+      <c r="E11">
+        <v>0.30553567042320545</v>
+      </c>
+      <c r="F11">
+        <v>0.33383580349122938</v>
+      </c>
+      <c r="G11">
+        <v>0.35391085779282871</v>
+      </c>
+      <c r="H11">
+        <v>0.31629133540463461</v>
+      </c>
+      <c r="I11">
+        <v>0.40408990340016365</v>
+      </c>
+      <c r="J11">
+        <v>0.50408422766875915</v>
+      </c>
+      <c r="K11">
+        <v>0.43764972290307463</v>
+      </c>
+      <c r="L11">
+        <v>0.47987106565712678</v>
+      </c>
+      <c r="M11">
+        <v>0.42866017595509442</v>
+      </c>
+      <c r="N11">
+        <v>0.41313772363980855</v>
+      </c>
+      <c r="O11">
+        <v>0.44840828655882753</v>
+      </c>
+      <c r="P11">
+        <v>0.52962712872127071</v>
+      </c>
+      <c r="Q11">
+        <v>0.48523399100321418</v>
+      </c>
+      <c r="R11">
+        <v>0.49271125876454647</v>
+      </c>
+      <c r="S11">
+        <v>0.48536304490501186</v>
+      </c>
+      <c r="T11">
+        <v>0.48150514392990218</v>
+      </c>
+      <c r="U11">
+        <v>0.4614585025703084</v>
+      </c>
+      <c r="V11">
+        <v>0.5891340668579812</v>
+      </c>
+      <c r="W11">
+        <v>0.57973346336740983</v>
+      </c>
+      <c r="X11">
+        <v>0.57121379853340593</v>
+      </c>
+      <c r="Y11">
+        <v>0.53350761775150568</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0.19400499300408838</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0.22503146583147113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>42310</v>
+      </c>
+      <c r="B12">
+        <v>0.42667424382939423</v>
+      </c>
+      <c r="C12">
+        <v>0.36726799988661901</v>
+      </c>
+      <c r="D12">
+        <v>0.51202763224614434</v>
+      </c>
+      <c r="E12">
+        <v>0.43046095919247712</v>
+      </c>
+      <c r="F12">
+        <v>0.29389760196325659</v>
+      </c>
+      <c r="G12">
+        <v>0.31790781737298968</v>
+      </c>
+      <c r="H12">
+        <v>0.26649677028006685</v>
+      </c>
+      <c r="I12">
+        <v>0.30472866499006063</v>
+      </c>
+      <c r="J12">
+        <v>0.46750609891717032</v>
+      </c>
+      <c r="K12">
+        <v>0.39152696687994892</v>
+      </c>
+      <c r="L12">
+        <v>0.41933214901570243</v>
+      </c>
+      <c r="M12">
+        <v>0.36153440183068525</v>
+      </c>
+      <c r="N12">
+        <v>0.4288207999258577</v>
+      </c>
+      <c r="O12">
+        <v>0.46316809346658583</v>
+      </c>
+      <c r="P12">
+        <v>0.54104863683317184</v>
+      </c>
+      <c r="Q12">
+        <v>0.4889885340778532</v>
+      </c>
+      <c r="R12">
+        <v>0.43657940723673327</v>
+      </c>
+      <c r="S12">
+        <v>0.38548027477681035</v>
+      </c>
+      <c r="T12">
+        <v>0.40979500628843951</v>
+      </c>
+      <c r="U12">
+        <v>0.42475534698541595</v>
+      </c>
+      <c r="V12">
+        <v>0.59020013220880008</v>
+      </c>
+      <c r="W12">
+        <v>0.56145941953073286</v>
+      </c>
+      <c r="X12">
+        <v>0.58661415000749795</v>
+      </c>
+      <c r="Y12">
+        <v>0.54741105972616622</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.14694326998795487</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0.26668943140255036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>42313</v>
+      </c>
+      <c r="B13">
+        <v>0.28489871009858375</v>
+      </c>
+      <c r="C13">
+        <v>0.25096364302451701</v>
+      </c>
+      <c r="D13">
+        <v>0.40118112158623681</v>
+      </c>
+      <c r="E13">
+        <v>0.31879274043535438</v>
+      </c>
+      <c r="F13">
+        <v>0.29151782537115345</v>
+      </c>
+      <c r="G13">
+        <v>0.31663133769862789</v>
+      </c>
+      <c r="H13">
+        <v>0.25686762108594791</v>
+      </c>
+      <c r="I13">
+        <v>0.30625541255792871</v>
+      </c>
+      <c r="J13">
+        <v>0.49288514099237324</v>
+      </c>
+      <c r="K13">
+        <v>0.43303231588095631</v>
+      </c>
+      <c r="L13">
+        <v>0.4244683875125706</v>
+      </c>
+      <c r="M13">
+        <v>0.37773796657686265</v>
+      </c>
+      <c r="N13">
+        <v>0.41355285204811038</v>
+      </c>
+      <c r="O13">
+        <v>0.44295903867274461</v>
+      </c>
+      <c r="P13">
+        <v>0.53785206375640093</v>
+      </c>
+      <c r="Q13">
+        <v>0.48783441222909341</v>
+      </c>
+      <c r="R13">
+        <v>0.45775230249274357</v>
+      </c>
+      <c r="S13">
+        <v>0.38521878554188249</v>
+      </c>
+      <c r="T13">
+        <v>0.41035396486844439</v>
+      </c>
+      <c r="U13">
+        <v>0.41196071685455199</v>
+      </c>
+      <c r="V13">
+        <v>0.59037060371071393</v>
+      </c>
+      <c r="W13">
+        <v>0.63194998141996084</v>
+      </c>
+      <c r="X13">
+        <v>0.62057028562684802</v>
+      </c>
+      <c r="Y13">
+        <v>0.56056637136655829</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0.15260377372738185</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0.24742852013406794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>42318</v>
+      </c>
+      <c r="B14">
+        <v>0.2947633815654831</v>
+      </c>
+      <c r="C14">
+        <v>0.26159669723678253</v>
+      </c>
+      <c r="D14">
+        <v>0.41037984798922816</v>
+      </c>
+      <c r="E14">
+        <v>0.33079649369153069</v>
+      </c>
+      <c r="F14">
+        <v>0.32766167252465489</v>
+      </c>
+      <c r="G14">
+        <v>0.34356457464943546</v>
+      </c>
+      <c r="H14">
+        <v>0.28715221469379132</v>
+      </c>
+      <c r="I14">
+        <v>0.33372220491738069</v>
+      </c>
+      <c r="J14">
+        <v>0.58249986452266889</v>
+      </c>
+      <c r="K14">
+        <v>0.4704774884144905</v>
+      </c>
+      <c r="L14">
+        <v>0.51223326545128223</v>
+      </c>
+      <c r="M14">
+        <v>0.44439851326398133</v>
+      </c>
+      <c r="N14">
+        <v>0.35879434753525491</v>
+      </c>
+      <c r="O14">
+        <v>0.34147597874766161</v>
+      </c>
+      <c r="P14">
+        <v>0.48765298568659715</v>
+      </c>
+      <c r="Q14">
+        <v>0.41656203520428348</v>
+      </c>
+      <c r="R14">
+        <v>0.43933575606174141</v>
+      </c>
+      <c r="S14">
+        <v>0.43864536608758103</v>
+      </c>
+      <c r="T14">
+        <v>0.42595430893484404</v>
+      </c>
+      <c r="U14">
+        <v>0.44639393315297687</v>
+      </c>
+      <c r="V14">
+        <v>0.65231962673152499</v>
+      </c>
+      <c r="W14">
+        <v>0.68909162623830966</v>
+      </c>
+      <c r="X14">
+        <v>0.66694586608245421</v>
+      </c>
+      <c r="Y14">
+        <v>0.59988074245411516</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0.13602490986395277</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>42320</v>
+      </c>
+      <c r="B15">
+        <v>0.2841372475386606</v>
+      </c>
+      <c r="C15">
+        <v>0.25201250172441758</v>
+      </c>
+      <c r="D15">
+        <v>0.42198754462445953</v>
+      </c>
+      <c r="E15">
+        <v>0.33821041379759265</v>
+      </c>
+      <c r="F15">
+        <v>0.35362651642056619</v>
+      </c>
+      <c r="G15">
+        <v>0.34848950725382893</v>
+      </c>
+      <c r="H15">
+        <v>0.31734241831150006</v>
+      </c>
+      <c r="I15">
+        <v>0.3438761906909637</v>
+      </c>
+      <c r="J15">
+        <v>0.59035978570194303</v>
+      </c>
+      <c r="K15">
+        <v>0.5163091106813692</v>
+      </c>
+      <c r="L15">
+        <v>0.49445174302156958</v>
+      </c>
+      <c r="M15">
+        <v>0.48831055478772706</v>
+      </c>
+      <c r="N15">
+        <v>0.4785463248318188</v>
+      </c>
+      <c r="O15">
+        <v>0.4640508964943092</v>
+      </c>
+      <c r="P15">
+        <v>0.61624301855934016</v>
+      </c>
+      <c r="Q15">
+        <v>0.53924268612445714</v>
+      </c>
+      <c r="R15">
+        <v>0.59035813749588473</v>
+      </c>
+      <c r="S15">
+        <v>0.59984525530092714</v>
+      </c>
+      <c r="T15">
+        <v>0.56040691373900342</v>
+      </c>
+      <c r="U15">
+        <v>0.57533013403436006</v>
+      </c>
+      <c r="V15">
+        <v>0.7634077337589158</v>
+      </c>
+      <c r="W15">
+        <v>0.77252650740947837</v>
+      </c>
+      <c r="X15">
+        <v>0.74266563584407275</v>
+      </c>
+      <c r="Y15">
+        <v>0.72276509697109614</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0.13602490986395277</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0.19320394749778064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>42325</v>
+      </c>
+      <c r="B16">
+        <v>0.27071389435562299</v>
+      </c>
+      <c r="C16">
+        <v>0.23580282198303779</v>
+      </c>
+      <c r="D16">
+        <v>0.40964256830733936</v>
+      </c>
+      <c r="E16">
+        <v>0.31634987550133631</v>
+      </c>
+      <c r="F16">
+        <v>0.35728888630143013</v>
+      </c>
+      <c r="G16">
+        <v>0.36414028261638681</v>
+      </c>
+      <c r="H16">
+        <v>0.29582773235038679</v>
+      </c>
+      <c r="I16">
+        <v>0.36332687013357295</v>
+      </c>
+      <c r="J16">
+        <v>0.64657312954869783</v>
+      </c>
+      <c r="K16">
+        <v>0.55913220574203204</v>
+      </c>
+      <c r="L16">
+        <v>0.60247622128625011</v>
+      </c>
+      <c r="M16">
+        <v>0.55355168052311066</v>
+      </c>
+      <c r="N16">
+        <v>0.36614912259279986</v>
+      </c>
+      <c r="O16">
+        <v>0.32958294675447025</v>
+      </c>
+      <c r="P16">
+        <v>0.50484766708254702</v>
+      </c>
+      <c r="Q16">
+        <v>0.40687250981525641</v>
+      </c>
+      <c r="R16">
+        <v>0.5118095361482714</v>
+      </c>
+      <c r="S16">
+        <v>0.47250442147140348</v>
+      </c>
+      <c r="T16">
+        <v>0.45825554819095088</v>
+      </c>
+      <c r="U16">
+        <v>0.47978398020612223</v>
+      </c>
+      <c r="V16">
+        <v>0.76198546289433089</v>
+      </c>
+      <c r="W16">
+        <v>0.79464264003754403</v>
+      </c>
+      <c r="X16">
+        <v>0.73096215511300566</v>
+      </c>
+      <c r="Y16">
+        <v>0.69772463647265814</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.13976010366007388</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>42328</v>
+      </c>
+      <c r="B17">
+        <v>0.39225044179600188</v>
+      </c>
+      <c r="C17">
+        <v>0.34553806518648239</v>
+      </c>
+      <c r="D17">
+        <v>0.52737854954259411</v>
+      </c>
+      <c r="E17">
+        <v>0.44637026086620563</v>
+      </c>
+      <c r="F17">
+        <v>0.52520391710537462</v>
+      </c>
+      <c r="G17">
+        <v>0.5022000091852169</v>
+      </c>
+      <c r="H17">
+        <v>0.45421589827521874</v>
+      </c>
+      <c r="I17">
+        <v>0.50816874847007387</v>
+      </c>
+      <c r="J17">
+        <v>0.7640203164976116</v>
+      </c>
+      <c r="K17">
+        <v>0.68578639796439256</v>
+      </c>
+      <c r="L17">
+        <v>0.72606597865364331</v>
+      </c>
+      <c r="M17">
+        <v>0.70661920921170862</v>
+      </c>
+      <c r="N17">
+        <v>0.48155756961217172</v>
+      </c>
+      <c r="O17">
+        <v>0.43872951730253917</v>
+      </c>
+      <c r="P17">
+        <v>0.6039253078589929</v>
+      </c>
+      <c r="Q17">
+        <v>0.53173735375785458</v>
+      </c>
+      <c r="R17">
+        <v>0.61449146896486295</v>
+      </c>
+      <c r="S17">
+        <v>0.57849810151841585</v>
+      </c>
+      <c r="T17">
+        <v>0.5733711291428728</v>
+      </c>
+      <c r="U17">
+        <v>0.5911140975910798</v>
+      </c>
+      <c r="V17">
+        <v>0.81167221017083602</v>
+      </c>
+      <c r="W17">
+        <v>0.83245709581821781</v>
+      </c>
+      <c r="X17">
+        <v>0.80795173284432253</v>
+      </c>
+      <c r="Y17">
+        <v>0.77976496934655148</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0.14927350768568526</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0.22740083778187914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>42331</v>
+      </c>
+      <c r="B18">
+        <v>0.25951252365831606</v>
+      </c>
+      <c r="C18">
+        <v>0.23220518216251337</v>
+      </c>
+      <c r="D18">
+        <v>0.39811727421137932</v>
+      </c>
+      <c r="E18">
+        <v>0.32029540299678666</v>
+      </c>
+      <c r="F18">
+        <v>0.38716084066288731</v>
+      </c>
+      <c r="G18">
+        <v>0.37363868307036818</v>
+      </c>
+      <c r="H18">
+        <v>0.3171903713220347</v>
+      </c>
+      <c r="I18">
+        <v>0.35996669594839487</v>
+      </c>
+      <c r="J18">
+        <v>0.70150063643164429</v>
+      </c>
+      <c r="K18">
+        <v>0.58988082116513552</v>
+      </c>
+      <c r="L18">
+        <v>0.67739432677930955</v>
+      </c>
+      <c r="M18">
+        <v>0.64517247307932013</v>
+      </c>
+      <c r="N18">
+        <v>0.37330102878735638</v>
+      </c>
+      <c r="O18">
+        <v>0.32471895906808018</v>
+      </c>
+      <c r="P18">
+        <v>0.52966815643805809</v>
+      </c>
+      <c r="Q18">
+        <v>0.4375942092209279</v>
+      </c>
+      <c r="R18">
+        <v>0.53927263436716577</v>
+      </c>
+      <c r="S18">
+        <v>0.53395413771368694</v>
+      </c>
+      <c r="T18">
+        <v>0.48845270183583966</v>
+      </c>
+      <c r="U18">
+        <v>0.53173805785144568</v>
+      </c>
+      <c r="V18">
+        <v>0.79253947982280681</v>
+      </c>
+      <c r="W18">
+        <v>0.82601765823703355</v>
+      </c>
+      <c r="X18">
+        <v>0.81008038473566468</v>
+      </c>
+      <c r="Y18">
+        <v>0.77654923600333137</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0.15164214595397149</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B19">
+        <v>0.23020090920712583</v>
+      </c>
+      <c r="C19">
+        <v>0.18876868494179075</v>
+      </c>
+      <c r="D19">
+        <v>0.31517180558610564</v>
+      </c>
+      <c r="E19">
+        <v>0.26363432171582751</v>
+      </c>
+      <c r="F19">
+        <v>0.38471712427703531</v>
+      </c>
+      <c r="G19">
+        <v>0.37905099464245562</v>
+      </c>
+      <c r="H19">
+        <v>0.34211117982847578</v>
+      </c>
+      <c r="I19">
+        <v>0.35487409230603972</v>
+      </c>
+      <c r="J19">
+        <v>0.67309366171174345</v>
+      </c>
+      <c r="K19">
+        <v>0.51867770872444363</v>
+      </c>
+      <c r="L19">
+        <v>0.61754568454051728</v>
+      </c>
+      <c r="M19">
+        <v>0.62626128473444742</v>
+      </c>
+      <c r="N19">
+        <v>0.32654039899736043</v>
+      </c>
+      <c r="O19">
+        <v>0.29204261118344571</v>
+      </c>
+      <c r="P19">
+        <v>0.43565948817619116</v>
+      </c>
+      <c r="Q19">
+        <v>0.3860425434530782</v>
+      </c>
+      <c r="R19">
+        <v>0.5721745885973375</v>
+      </c>
+      <c r="S19">
+        <v>0.53480996627863409</v>
+      </c>
+      <c r="T19">
+        <v>0.51437339992628206</v>
+      </c>
+      <c r="U19">
+        <v>0.57825807796998341</v>
+      </c>
+      <c r="V19">
+        <v>0.79164612391281797</v>
+      </c>
+      <c r="W19">
+        <v>0.7896519582069218</v>
+      </c>
+      <c r="X19">
+        <v>0.81416694375369625</v>
+      </c>
+      <c r="Y19">
+        <v>0.78972669317652389</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.13397787181397755</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>42342</v>
+      </c>
+      <c r="B20">
+        <v>0.20193582254399597</v>
+      </c>
+      <c r="C20">
+        <v>0.1853802592433656</v>
+      </c>
+      <c r="D20">
+        <v>0.28294933298937436</v>
+      </c>
+      <c r="E20">
+        <v>0.24195714579581784</v>
+      </c>
+      <c r="F20">
+        <v>0.350970999812317</v>
+      </c>
+      <c r="G20">
+        <v>0.33722430616536853</v>
+      </c>
+      <c r="H20">
+        <v>0.33101051426434602</v>
+      </c>
+      <c r="I20">
+        <v>0.30750138814584904</v>
+      </c>
+      <c r="J20">
+        <v>0.63680835488943421</v>
+      </c>
+      <c r="K20">
+        <v>0.49528491013273046</v>
+      </c>
+      <c r="L20">
+        <v>0.56347733725849347</v>
+      </c>
+      <c r="M20">
+        <v>0.60535765537738062</v>
+      </c>
+      <c r="N20">
+        <v>0.38445333706406953</v>
+      </c>
+      <c r="O20">
+        <v>0.34983371632549215</v>
+      </c>
+      <c r="P20">
+        <v>0.46463580554097877</v>
+      </c>
+      <c r="Q20">
+        <v>0.41046366059687706</v>
+      </c>
+      <c r="R20">
+        <v>0.61038502660380456</v>
+      </c>
+      <c r="S20">
+        <v>0.58446125090596834</v>
+      </c>
+      <c r="T20">
+        <v>0.55185386447697737</v>
+      </c>
+      <c r="U20">
+        <v>0.5653476178326875</v>
+      </c>
+      <c r="V20">
+        <v>0.77138119892502299</v>
+      </c>
+      <c r="W20">
+        <v>0.80238954991645939</v>
+      </c>
+      <c r="X20">
+        <v>0.80524091725680547</v>
+      </c>
+      <c r="Y20">
+        <v>0.79247621860634287</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0.13912237609151598</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0.20638788798480048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>42345</v>
+      </c>
+      <c r="B21">
+        <v>0.20884996930285968</v>
+      </c>
+      <c r="C21">
+        <v>0.18727752977477666</v>
+      </c>
+      <c r="D21">
+        <v>0.29065928507695898</v>
+      </c>
+      <c r="E21">
+        <v>0.23597307466587372</v>
+      </c>
+      <c r="F21">
+        <v>0.32726330149375643</v>
+      </c>
+      <c r="G21">
+        <v>0.31871520201271386</v>
+      </c>
+      <c r="H21">
+        <v>0.30606990126646755</v>
+      </c>
+      <c r="I21">
+        <v>0.28812097853177948</v>
+      </c>
+      <c r="J21">
+        <v>0.60333274947936522</v>
+      </c>
+      <c r="K21">
+        <v>0.46158597151624864</v>
+      </c>
+      <c r="L21">
+        <v>0.54564058595357789</v>
+      </c>
+      <c r="M21">
+        <v>0.5781194234021283</v>
+      </c>
+      <c r="N21">
+        <v>0.35980803614585799</v>
+      </c>
+      <c r="O21">
+        <v>0.31775321622654773</v>
+      </c>
+      <c r="P21">
+        <v>0.44197583301975524</v>
+      </c>
+      <c r="Q21">
+        <v>0.38389528372787868</v>
+      </c>
+      <c r="R21">
+        <v>0.56832016577803424</v>
+      </c>
+      <c r="S21">
+        <v>0.53366138194654467</v>
+      </c>
+      <c r="T21">
+        <v>0.52660194011812089</v>
+      </c>
+      <c r="U21">
+        <v>0.55076625583918637</v>
+      </c>
+      <c r="V21">
+        <v>0.78005195083763768</v>
+      </c>
+      <c r="W21">
+        <v>0.79600451539163797</v>
+      </c>
+      <c r="X21">
+        <v>0.80242276758949649</v>
+      </c>
+      <c r="Y21">
+        <v>0.78141275155423462</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0.13662387538073872</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0.207246719562245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>42349</v>
+      </c>
+      <c r="B22">
+        <v>0.2013075143772769</v>
+      </c>
+      <c r="C22">
+        <v>0.18251876716932172</v>
+      </c>
+      <c r="D22">
+        <v>0.29107365642318694</v>
+      </c>
+      <c r="E22">
+        <v>0.2404791107978953</v>
+      </c>
+      <c r="F22">
+        <v>0.31906764650020908</v>
+      </c>
+      <c r="G22">
+        <v>0.30164381394329026</v>
+      </c>
+      <c r="H22">
+        <v>0.27905280241898439</v>
+      </c>
+      <c r="I22">
+        <v>0.27979660145058638</v>
+      </c>
+      <c r="J22">
+        <v>0.59526568615090147</v>
+      </c>
+      <c r="K22">
+        <v>0.43768614312955745</v>
+      </c>
+      <c r="L22">
+        <v>0.50445724989027674</v>
+      </c>
+      <c r="M22">
+        <v>0.56565315706740726</v>
+      </c>
+      <c r="N22">
+        <v>0.31908271311952047</v>
+      </c>
+      <c r="O22">
+        <v>0.26283743200880194</v>
+      </c>
+      <c r="P22">
+        <v>0.38646257571991682</v>
+      </c>
+      <c r="Q22">
+        <v>0.35262396526365203</v>
+      </c>
+      <c r="R22">
+        <v>0.58449713043428553</v>
+      </c>
+      <c r="S22">
+        <v>0.52880914693892</v>
+      </c>
+      <c r="T22">
+        <v>0.55641897793152706</v>
+      </c>
+      <c r="U22">
+        <v>0.55773810390381728</v>
+      </c>
+      <c r="V22">
+        <v>0.77113862098830055</v>
+      </c>
+      <c r="W22">
+        <v>0.78076915338357245</v>
+      </c>
+      <c r="X22">
+        <v>0.79626906501738481</v>
+      </c>
+      <c r="Y22">
+        <v>0.78392420777189209</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0.12241442549795023</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.1930110624330903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>42352</v>
+      </c>
+      <c r="B23">
+        <v>0.1984493692308435</v>
+      </c>
+      <c r="C23">
+        <v>0.17724340700956528</v>
+      </c>
+      <c r="D23">
+        <v>0.28902115165572395</v>
+      </c>
+      <c r="E23">
+        <v>0.24164183706192194</v>
+      </c>
+      <c r="F23">
+        <v>0.30954671687322</v>
+      </c>
+      <c r="G23">
+        <v>0.30829911777828845</v>
+      </c>
+      <c r="H23">
+        <v>0.28512791075843658</v>
+      </c>
+      <c r="I23">
+        <v>0.27199448849703134</v>
+      </c>
+      <c r="J23">
+        <v>0.53581192495097374</v>
+      </c>
+      <c r="K23">
+        <v>0.42064579797862595</v>
+      </c>
+      <c r="L23">
+        <v>0.50975078156374376</v>
+      </c>
+      <c r="M23">
+        <v>0.53611875521586472</v>
+      </c>
+      <c r="N23">
+        <v>0.29359738857688139</v>
+      </c>
+      <c r="O23">
+        <v>0.25879101434421103</v>
+      </c>
+      <c r="P23">
+        <v>0.37718169906162086</v>
+      </c>
+      <c r="Q23">
+        <v>0.333381680775658</v>
+      </c>
+      <c r="R23">
+        <v>0.57618925948206401</v>
+      </c>
+      <c r="S23">
+        <v>0.52194331258899995</v>
+      </c>
+      <c r="T23">
+        <v>0.547808665153248</v>
+      </c>
+      <c r="U23">
+        <v>0.53393935819790395</v>
+      </c>
+      <c r="V23">
+        <v>0.75985051313305185</v>
+      </c>
+      <c r="W23">
+        <v>0.76677953541024613</v>
+      </c>
+      <c r="X23">
+        <v>0.77916660887357092</v>
+      </c>
+      <c r="Y23">
+        <v>0.76735380946169662</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0.1577790160138971</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0.17302446054623483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>42359</v>
+      </c>
+      <c r="B24">
+        <v>0.20526292951209715</v>
+      </c>
+      <c r="C24">
+        <v>0.19299409709902871</v>
+      </c>
+      <c r="D24">
+        <v>0.30312237906800527</v>
+      </c>
+      <c r="E24">
+        <v>0.2666066063525126</v>
+      </c>
+      <c r="F24">
+        <v>0.29099095492121319</v>
+      </c>
+      <c r="G24">
+        <v>0.29617264385384856</v>
+      </c>
+      <c r="H24">
+        <v>0.27245419587463326</v>
+      </c>
+      <c r="I24">
+        <v>0.27037912669047887</v>
+      </c>
+      <c r="J24">
+        <v>0.53475483013492053</v>
+      </c>
+      <c r="K24">
+        <v>0.36882018919754073</v>
+      </c>
+      <c r="L24">
+        <v>0.45071682758420412</v>
+      </c>
+      <c r="M24">
+        <v>0.49339635945605675</v>
+      </c>
+      <c r="N24">
+        <v>0.31064252662138608</v>
+      </c>
+      <c r="O24">
+        <v>0.25935770866171853</v>
+      </c>
+      <c r="P24">
+        <v>0.38912295913501849</v>
+      </c>
+      <c r="Q24">
+        <v>0.34875455493701496</v>
+      </c>
+      <c r="R24">
+        <v>0.51318208706426072</v>
+      </c>
+      <c r="S24">
+        <v>0.4609955966657649</v>
+      </c>
+      <c r="T24">
+        <v>0.46342512675227754</v>
+      </c>
+      <c r="U24">
+        <v>0.46514975757235183</v>
+      </c>
+      <c r="V24">
+        <v>0.73420456778471377</v>
+      </c>
+      <c r="W24">
+        <v>0.7322898742600501</v>
+      </c>
+      <c r="X24">
+        <v>0.73090687149909828</v>
+      </c>
+      <c r="Y24">
+        <v>0.71941153874368613</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0.1271958305211715</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0.194261197167065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>42368</v>
+      </c>
+      <c r="B25">
+        <v>0.17509980952506027</v>
+      </c>
+      <c r="C25">
+        <v>0.1626124978685683</v>
+      </c>
+      <c r="D25">
+        <v>0.22625618685388307</v>
+      </c>
+      <c r="E25">
+        <v>0.21281442914179219</v>
+      </c>
+      <c r="F25">
+        <v>0.24302639357465788</v>
+      </c>
+      <c r="G25">
+        <v>0.24619792714965411</v>
+      </c>
+      <c r="H25">
+        <v>0.21308481972826263</v>
+      </c>
+      <c r="I25">
+        <v>0.21541362085166074</v>
+      </c>
+      <c r="J25">
+        <v>0.39381515275167056</v>
+      </c>
+      <c r="K25">
+        <v>0.30502480766111889</v>
+      </c>
+      <c r="L25">
+        <v>0.35453981494273168</v>
+      </c>
+      <c r="M25">
+        <v>0.40602934479699898</v>
+      </c>
+      <c r="N25">
+        <v>0.26444868512796343</v>
+      </c>
+      <c r="O25">
+        <v>0.2553513443608218</v>
+      </c>
+      <c r="P25">
+        <v>0.34608048803806751</v>
+      </c>
+      <c r="Q25">
+        <v>0.31535644975766397</v>
+      </c>
+      <c r="R25">
+        <v>0.47898021188608414</v>
+      </c>
+      <c r="S25">
+        <v>0.42022466160449123</v>
+      </c>
+      <c r="T25">
+        <v>0.42379599140421798</v>
+      </c>
+      <c r="U25">
+        <v>0.44217950143345802</v>
+      </c>
+      <c r="V25">
+        <v>0.72099905892286187</v>
+      </c>
+      <c r="W25">
+        <v>0.73037000899921034</v>
+      </c>
+      <c r="X25">
+        <v>0.74306656583280783</v>
+      </c>
+      <c r="Y25">
+        <v>0.73302409755271669</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0.12340782458366524</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>42374</v>
+      </c>
+      <c r="B26">
+        <v>0.15614077567255796</v>
+      </c>
+      <c r="C26">
+        <v>0.14656228608779276</v>
+      </c>
+      <c r="D26">
+        <v>0.18939633897857411</v>
+      </c>
+      <c r="E26">
+        <v>0.19019038281328146</v>
+      </c>
+      <c r="F26">
+        <v>0.2083967024013752</v>
+      </c>
+      <c r="G26">
+        <v>0.21585257258135337</v>
+      </c>
+      <c r="H26">
+        <v>0.19759283889105864</v>
+      </c>
+      <c r="I26">
+        <v>0.18780667253380268</v>
+      </c>
+      <c r="J26">
+        <v>0.31133588993936934</v>
+      </c>
+      <c r="K26">
+        <v>0.24535769428347254</v>
+      </c>
+      <c r="L26">
+        <v>0.29411857571432465</v>
+      </c>
+      <c r="M26">
+        <v>0.35548277009802215</v>
+      </c>
+      <c r="N26">
+        <v>0.28234538649231011</v>
+      </c>
+      <c r="O26">
+        <v>0.26863946693056234</v>
+      </c>
+      <c r="P26">
+        <v>0.34364028535611935</v>
+      </c>
+      <c r="Q26">
+        <v>0.33248382767746837</v>
+      </c>
+      <c r="R26">
+        <v>0.43858120392001676</v>
+      </c>
+      <c r="S26">
+        <v>0.39668482756573248</v>
+      </c>
+      <c r="T26">
+        <v>0.41718595298404504</v>
+      </c>
+      <c r="U26">
+        <v>0.44014868171467664</v>
+      </c>
+      <c r="V26">
+        <v>0.65170238528670266</v>
+      </c>
+      <c r="W26">
+        <v>0.69875142343796626</v>
+      </c>
+      <c r="X26">
+        <v>0.70347688467113945</v>
+      </c>
+      <c r="Y26">
+        <v>0.68818129565923236</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0.13926218451040742</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>42380</v>
+      </c>
+      <c r="B27">
+        <v>0.11137280645936359</v>
+      </c>
+      <c r="C27">
+        <v>0.10914063881928122</v>
+      </c>
+      <c r="D27">
+        <v>0.13807860393311833</v>
+      </c>
+      <c r="E27">
+        <v>0.14705317889199468</v>
+      </c>
+      <c r="F27">
+        <v>0.13252067124169453</v>
+      </c>
+      <c r="G27">
+        <v>0.1499996827766972</v>
+      </c>
+      <c r="H27">
+        <v>0.1528935010329438</v>
+      </c>
+      <c r="I27">
+        <v>0.12894517111143139</v>
+      </c>
+      <c r="J27">
+        <v>0.19678159613741045</v>
+      </c>
+      <c r="K27">
+        <v>0.15909870781254637</v>
+      </c>
+      <c r="L27">
+        <v>0.19178632591493636</v>
+      </c>
+      <c r="M27">
+        <v>0.26868304431815293</v>
+      </c>
+      <c r="N27">
+        <v>0.27473443739867276</v>
+      </c>
+      <c r="O27">
+        <v>0.28235105241980657</v>
+      </c>
+      <c r="P27">
+        <v>0.33090616203700779</v>
+      </c>
+      <c r="Q27">
+        <v>0.32077293244942123</v>
+      </c>
+      <c r="R27">
+        <v>0.39516773293502955</v>
+      </c>
+      <c r="S27">
+        <v>0.35701915876930296</v>
+      </c>
+      <c r="T27">
+        <v>0.35068204866388281</v>
+      </c>
+      <c r="U27">
+        <v>0.41820972161843872</v>
+      </c>
+      <c r="V27">
+        <v>0.59607983786761143</v>
+      </c>
+      <c r="W27">
+        <v>0.63233959133857098</v>
+      </c>
+      <c r="X27">
+        <v>0.6694759534499034</v>
+      </c>
+      <c r="Y27">
+        <v>0.65675377123057588</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0.13176126937282398</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0.19822197643862857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>42383</v>
+      </c>
+      <c r="B28">
+        <v>9.4722174778879009E-2</v>
+      </c>
+      <c r="C28">
+        <v>9.0779704333559627E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.11463088179369219</v>
+      </c>
+      <c r="E28">
+        <v>0.11685269988082329</v>
+      </c>
+      <c r="F28">
+        <v>0.12237571844677221</v>
+      </c>
+      <c r="G28">
+        <v>0.12651795888557665</v>
+      </c>
+      <c r="H28">
+        <v>0.11862653777881056</v>
+      </c>
+      <c r="I28">
+        <v>0.10286906129480355</v>
+      </c>
+      <c r="J28">
+        <v>0.1487192325502181</v>
+      </c>
+      <c r="K28">
+        <v>0.12395289071904703</v>
+      </c>
+      <c r="L28">
+        <v>0.15615780667594084</v>
+      </c>
+      <c r="M28">
+        <v>0.18844203761410927</v>
+      </c>
+      <c r="N28">
+        <v>0.2297904274262802</v>
+      </c>
+      <c r="O28">
+        <v>0.22699615170672907</v>
+      </c>
+      <c r="P28">
+        <v>0.27134780256414331</v>
+      </c>
+      <c r="Q28">
+        <v>0.27532503203209829</v>
+      </c>
+      <c r="R28">
+        <v>0.35272195683106694</v>
+      </c>
+      <c r="S28">
+        <v>0.32658769348144623</v>
+      </c>
+      <c r="T28">
+        <v>0.33112964798636602</v>
+      </c>
+      <c r="U28">
+        <v>0.38104207944160357</v>
+      </c>
+      <c r="V28">
+        <v>0.51634975688945506</v>
+      </c>
+      <c r="W28">
+        <v>0.61500233032153762</v>
+      </c>
+      <c r="X28">
+        <v>0.65638740585926725</v>
+      </c>
+      <c r="Y28">
+        <v>0.64214580751138639</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0.12406217725991785</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>0.19327832154576782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>42388</v>
+      </c>
+      <c r="B29">
+        <v>9.601667065707678E-2</v>
+      </c>
+      <c r="C29">
+        <v>8.7717230823708275E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.11086146823258269</v>
+      </c>
+      <c r="E29">
+        <v>0.11065404948601325</v>
+      </c>
+      <c r="F29">
+        <v>0.1026594632695115</v>
+      </c>
+      <c r="G29">
+        <v>0.11126325036265151</v>
+      </c>
+      <c r="H29">
+        <v>0.10153636310933664</v>
+      </c>
+      <c r="I29">
+        <v>0.10951144301560117</v>
+      </c>
+      <c r="J29">
+        <v>0.13401733834716845</v>
+      </c>
+      <c r="K29">
+        <v>0.11852834143999773</v>
+      </c>
+      <c r="L29">
+        <v>0.13074356422165026</v>
+      </c>
+      <c r="M29">
+        <v>0.1453663203304946</v>
+      </c>
+      <c r="N29">
+        <v>0.22053618106578488</v>
+      </c>
+      <c r="O29">
+        <v>0.20777946176166892</v>
+      </c>
+      <c r="P29">
+        <v>0.23074219504668531</v>
+      </c>
+      <c r="Q29">
+        <v>0.24772523710738226</v>
+      </c>
+      <c r="R29">
+        <v>0.28634243808684429</v>
+      </c>
+      <c r="S29">
+        <v>0.27380294988463655</v>
+      </c>
+      <c r="T29">
+        <v>0.28742705442221195</v>
+      </c>
+      <c r="U29">
+        <v>0.34944828892154328</v>
+      </c>
+      <c r="V29">
+        <v>0.3842745156754156</v>
+      </c>
+      <c r="W29">
+        <v>0.537827246771031</v>
+      </c>
+      <c r="X29">
+        <v>0.62554274245009323</v>
+      </c>
+      <c r="Y29">
+        <v>0.59207646137050363</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0.14728723747948178</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>0.17138087907653013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>42391</v>
+      </c>
+      <c r="B30">
+        <v>9.968017990173185E-2</v>
+      </c>
+      <c r="C30">
+        <v>9.6401301180064597E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.11189551723766539</v>
+      </c>
+      <c r="E30">
+        <v>0.10825024150182852</v>
+      </c>
+      <c r="F30">
+        <v>0.10382185748111195</v>
+      </c>
+      <c r="G30">
+        <v>0.10847549670061191</v>
+      </c>
+      <c r="H30">
+        <v>9.9956669960810429E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.10723933890297302</v>
+      </c>
+      <c r="J30">
+        <v>0.12998559049752975</v>
+      </c>
+      <c r="K30">
+        <v>0.12044860778366008</v>
+      </c>
+      <c r="L30">
+        <v>0.12193911025718547</v>
+      </c>
+      <c r="M30">
+        <v>0.12744742589021188</v>
+      </c>
+      <c r="N30">
+        <v>0.1908197218403557</v>
+      </c>
+      <c r="O30">
+        <v>0.16888202989973097</v>
+      </c>
+      <c r="P30">
+        <v>0.18207910005285294</v>
+      </c>
+      <c r="Q30">
+        <v>0.1913019626510136</v>
+      </c>
+      <c r="R30">
+        <v>0.21952464951793024</v>
+      </c>
+      <c r="S30">
+        <v>0.22235647849098505</v>
+      </c>
+      <c r="T30">
+        <v>0.23735937893878448</v>
+      </c>
+      <c r="U30">
+        <v>0.28490408729337352</v>
+      </c>
+      <c r="V30">
+        <v>0.28851081245979088</v>
+      </c>
+      <c r="W30">
+        <v>0.43382392274742082</v>
+      </c>
+      <c r="X30">
+        <v>0.57483037573479834</v>
+      </c>
+      <c r="Y30">
+        <v>0.51948283331065859</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0.1473397066515359</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0.1969015205262068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>42394</v>
+      </c>
+      <c r="B31">
+        <v>8.8711895929439094E-2</v>
+      </c>
+      <c r="C31">
+        <v>8.4762967419355725E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.10825809290750511</v>
+      </c>
+      <c r="E31">
+        <v>0.10179974218804951</v>
+      </c>
+      <c r="F31">
+        <v>0.10271889481536102</v>
+      </c>
+      <c r="G31">
+        <v>0.10895018541046793</v>
+      </c>
+      <c r="H31">
+        <v>0.10011289216393275</v>
+      </c>
+      <c r="I31">
+        <v>0.10272932180079708</v>
+      </c>
+      <c r="J31">
+        <v>0.12436551926565249</v>
+      </c>
+      <c r="K31">
+        <v>0.11386814837721788</v>
+      </c>
+      <c r="L31">
+        <v>0.11795647267133849</v>
+      </c>
+      <c r="M31">
+        <v>0.11618720329299285</v>
+      </c>
+      <c r="N31">
+        <v>0.17614347218323201</v>
+      </c>
+      <c r="O31">
+        <v>0.15041215828005022</v>
+      </c>
+      <c r="P31">
+        <v>0.15587005122520181</v>
+      </c>
+      <c r="Q31">
+        <v>0.16500957628485696</v>
+      </c>
+      <c r="R31">
+        <v>0.17695116278904779</v>
+      </c>
+      <c r="S31">
+        <v>0.18329578576932506</v>
+      </c>
+      <c r="T31">
+        <v>0.1922256310537567</v>
+      </c>
+      <c r="U31">
+        <v>0.21481874278595195</v>
+      </c>
+      <c r="V31">
+        <v>0.2076606322789295</v>
+      </c>
+      <c r="W31">
+        <v>0.33429156422520695</v>
+      </c>
+      <c r="X31">
+        <v>0.51630406385975336</v>
+      </c>
+      <c r="Y31">
+        <v>0.46893874095603733</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0.14534637028943659</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>42398</v>
+      </c>
+      <c r="B32">
+        <v>0.10247665554597038</v>
+      </c>
+      <c r="C32">
+        <v>9.8952698910863598E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.1173970034924238</v>
+      </c>
+      <c r="E32">
+        <v>0.10620602223062041</v>
+      </c>
+      <c r="F32">
+        <v>0.10993205643374572</v>
+      </c>
+      <c r="G32">
+        <v>0.11476842171610457</v>
+      </c>
+      <c r="H32">
+        <v>0.10814293781650645</v>
+      </c>
+      <c r="I32">
+        <v>0.11160579540858079</v>
+      </c>
+      <c r="J32">
+        <v>0.12732305610984601</v>
+      </c>
+      <c r="K32">
+        <v>0.13005899819471498</v>
+      </c>
+      <c r="L32">
+        <v>0.12601119287499507</v>
+      </c>
+      <c r="M32">
+        <v>0.13563770565551739</v>
+      </c>
+      <c r="N32">
+        <v>0.14923463378882379</v>
+      </c>
+      <c r="O32">
+        <v>0.15390652802219187</v>
+      </c>
+      <c r="P32">
+        <v>0.16281369343460406</v>
+      </c>
+      <c r="Q32">
+        <v>0.15991505906673895</v>
+      </c>
+      <c r="R32">
+        <v>0.17275596723303746</v>
+      </c>
+      <c r="S32">
+        <v>0.17500350947063781</v>
+      </c>
+      <c r="T32">
+        <v>0.18371810683852235</v>
+      </c>
+      <c r="U32">
+        <v>0.2110366557170997</v>
+      </c>
+      <c r="V32">
+        <v>0.20199851946082867</v>
+      </c>
+      <c r="W32">
+        <v>0.27460536565567134</v>
+      </c>
+      <c r="X32">
+        <v>0.43312548887878394</v>
+      </c>
+      <c r="Y32">
+        <v>0.39121831240251592</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0.14534637028943659</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>42401</v>
+      </c>
+      <c r="B33">
+        <v>0.10072825351974245</v>
+      </c>
+      <c r="C33">
+        <v>9.4684990431677607E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.11721554702084068</v>
+      </c>
+      <c r="E33">
+        <v>0.10427230397946152</v>
+      </c>
+      <c r="F33">
+        <v>0.10492215422831484</v>
+      </c>
+      <c r="G33">
+        <v>0.11286696665368598</v>
+      </c>
+      <c r="H33">
+        <v>0.10662738285345294</v>
+      </c>
+      <c r="I33">
+        <v>0.11620442843047922</v>
+      </c>
+      <c r="J33">
+        <v>0.12824002483952052</v>
+      </c>
+      <c r="K33">
+        <v>0.12753126164695947</v>
+      </c>
+      <c r="L33">
+        <v>0.13331281578687521</v>
+      </c>
+      <c r="M33">
+        <v>0.13314850471676701</v>
+      </c>
+      <c r="N33">
+        <v>0.17119232211831509</v>
+      </c>
+      <c r="O33">
+        <v>0.15424637355181761</v>
+      </c>
+      <c r="P33">
+        <v>0.14619489198884511</v>
+      </c>
+      <c r="Q33">
+        <v>0.15190981909147919</v>
+      </c>
+      <c r="R33">
+        <v>0.1574302728699114</v>
+      </c>
+      <c r="S33">
+        <v>0.15424690909473157</v>
+      </c>
+      <c r="T33">
+        <v>0.16293161783635032</v>
+      </c>
+      <c r="U33">
+        <v>0.16697502996026387</v>
+      </c>
+      <c r="V33">
+        <v>0.17139833311470265</v>
+      </c>
+      <c r="W33">
+        <v>0.24327945252942706</v>
+      </c>
+      <c r="X33">
+        <v>0.34710687446076283</v>
+      </c>
+      <c r="Y33">
+        <v>0.30132491296954467</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>0.16974449868780653</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>42409</v>
+      </c>
+      <c r="N34">
+        <v>0.20584364992437174</v>
+      </c>
+      <c r="O34">
+        <v>0.1494219769732465</v>
+      </c>
+      <c r="P34">
+        <v>0.14504664496794933</v>
+      </c>
+      <c r="Q34">
+        <v>0.15527362336216166</v>
+      </c>
+      <c r="R34">
+        <v>0.1465222361247201</v>
+      </c>
+      <c r="S34">
+        <v>0.14272385161234047</v>
+      </c>
+      <c r="T34">
+        <v>0.17058515675642325</v>
+      </c>
+      <c r="U34">
+        <v>0.13503506452923147</v>
+      </c>
+      <c r="V34">
+        <v>0.15618582577159773</v>
+      </c>
+      <c r="W34">
+        <v>0.16491141228775832</v>
+      </c>
+      <c r="X34">
+        <v>0.21441648689234435</v>
+      </c>
+      <c r="Y34">
+        <v>0.19000529616076478</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>0.13904713441808508</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>0.19916060500883359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4997,7 +7754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
@@ -7046,11 +9803,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
